--- a/src/assets/uploads/documents/contacts/0bid2gacd5eibd/upload-contacts.xlsx
+++ b/src/assets/uploads/documents/contacts/0bid2gacd5eibd/upload-contacts.xlsx
@@ -11,62 +11,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
-  <si>
-    <t>S.No</t>
-  </si>
-  <si>
-    <t>Firstname</t>
-  </si>
-  <si>
-    <t>Lastname</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>test11</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>test25</t>
   </si>
   <si>
     <t>test</t>
   </si>
   <si>
-    <t>test21@gmail.com</t>
-  </si>
-  <si>
-    <t>test12</t>
-  </si>
-  <si>
-    <t>test22@gmail.com</t>
-  </si>
-  <si>
-    <t>test13</t>
-  </si>
-  <si>
-    <t>test23@gmail.com</t>
-  </si>
-  <si>
-    <t>test14</t>
+    <t>test25@gmail.com</t>
+  </si>
+  <si>
+    <t>test26</t>
+  </si>
+  <si>
+    <t>test26@gmail.com</t>
+  </si>
+  <si>
+    <t>test27</t>
+  </si>
+  <si>
+    <t>test27@gmail.com</t>
+  </si>
+  <si>
+    <t>test28</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <color theme="1"/>
@@ -88,17 +80,11 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -321,91 +307,73 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3">
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1">
         <v>1.0</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3">
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1">
         <v>2.0</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3">
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1">
         <v>3.0</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="3" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3">
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1">
         <v>4.0</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3">
-        <v>4.0</v>
-      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="A1"/>
-  </hyperlinks>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/assets/uploads/documents/contacts/0bid2gacd5eibd/upload-contacts.xlsx
+++ b/src/assets/uploads/documents/contacts/0bid2gacd5eibd/upload-contacts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhis\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E04B7F-EFA1-43EA-9C84-3E4C4E84FDE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0120F9-A735-4F2E-A8A8-E31C0501C861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -365,9 +365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I976"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
